--- a/RUDN/Correlations/deep.Corr_in_SMR.Southern Europe.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_SMR.Southern Europe.xlsx
@@ -13,10 +13,113 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>IT.CEL.SETS.P2:SMR</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:SMR</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:SMR</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:SMR</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:SMR</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:SMR</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:SMR</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:SMR</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:SMR</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:SMR</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:SMR:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:SMR:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:SMR:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +143,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +461,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-0.8717743615306277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.840781587933246e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.6413878905694521</v>
+      </c>
+      <c r="C4">
+        <v>-0.4542483864944357</v>
+      </c>
+      <c r="E4">
+        <v>-0.3920554481360239</v>
+      </c>
+      <c r="F4">
+        <v>-0.4000638141052412</v>
+      </c>
+      <c r="H4">
+        <v>-0.3860748445385034</v>
+      </c>
+      <c r="J4">
+        <v>0.4311470464103125</v>
+      </c>
+      <c r="K4">
+        <v>0.4272862000935734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.01342656279550683</v>
+      </c>
+      <c r="C5">
+        <v>0.1027462080640991</v>
+      </c>
+      <c r="E5">
+        <v>0.1656144141514992</v>
+      </c>
+      <c r="F5">
+        <v>0.1563773481312589</v>
+      </c>
+      <c r="H5">
+        <v>0.172740140276748</v>
+      </c>
+      <c r="J5">
+        <v>0.1237634312022669</v>
+      </c>
+      <c r="K5">
+        <v>0.1275393733124868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.7068040647294878</v>
+      </c>
+      <c r="C6">
+        <v>0.8050384746868502</v>
+      </c>
+      <c r="F6">
+        <v>0.9987470984911596</v>
+      </c>
+      <c r="H6">
+        <v>0.996539534208193</v>
+      </c>
+      <c r="J6">
+        <v>-0.7997342240795299</v>
+      </c>
+      <c r="K6">
+        <v>-0.8130457703566647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.004707267838969144</v>
+      </c>
+      <c r="C7">
+        <v>0.0005134309936471795</v>
+      </c>
+      <c r="F7">
+        <v>5.569642432817874e-17</v>
+      </c>
+      <c r="H7">
+        <v>2.460802459006341e-14</v>
+      </c>
+      <c r="J7">
+        <v>0.0005957753476158527</v>
+      </c>
+      <c r="K7">
+        <v>0.0004066766159272154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.7129160696916281</v>
+      </c>
+      <c r="C8">
+        <v>0.8117897168253512</v>
+      </c>
+      <c r="H8">
+        <v>0.995505516663346</v>
+      </c>
+      <c r="J8">
+        <v>-0.8060543853035069</v>
+      </c>
+      <c r="K8">
+        <v>-0.8194714385123123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.004209972450101554</v>
+      </c>
+      <c r="C9">
+        <v>0.0004221207628558958</v>
+      </c>
+      <c r="H9">
+        <v>1.178648323539211e-13</v>
+      </c>
+      <c r="J9">
+        <v>0.0004987593418974381</v>
+      </c>
+      <c r="K9">
+        <v>0.000334620620937519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.7095016972931781</v>
+      </c>
+      <c r="C10">
+        <v>0.80378239877254</v>
+      </c>
+      <c r="D10">
+        <v>-0.388761287053609</v>
+      </c>
+      <c r="E10">
+        <v>0.9992032232930369</v>
+      </c>
+      <c r="F10">
+        <v>0.9991573492902932</v>
+      </c>
+      <c r="G10">
+        <v>0.8334616625517189</v>
+      </c>
+      <c r="H10">
+        <v>0.9953055567720542</v>
+      </c>
+      <c r="I10">
+        <v>-0.8155347026887099</v>
+      </c>
+      <c r="J10">
+        <v>-0.8031099276851077</v>
+      </c>
+      <c r="K10">
+        <v>-0.816050025749626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.004482411351676464</v>
+      </c>
+      <c r="C11">
+        <v>0.0005320486603194019</v>
+      </c>
+      <c r="D11">
+        <v>0.169515144832362</v>
+      </c>
+      <c r="E11">
+        <v>3.687823712103532e-18</v>
+      </c>
+      <c r="F11">
+        <v>5.15932891748446e-18</v>
+      </c>
+      <c r="G11">
+        <v>0.0002129729500966071</v>
+      </c>
+      <c r="H11">
+        <v>1.529761468192671e-13</v>
+      </c>
+      <c r="I11">
+        <v>0.0003774173847348267</v>
+      </c>
+      <c r="J11">
+        <v>0.0005422367687467908</v>
+      </c>
+      <c r="K11">
+        <v>0.0003715769649880931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.7225936301632466</v>
+      </c>
+      <c r="C12">
+        <v>0.791568608997552</v>
+      </c>
+      <c r="D12">
+        <v>-0.3855985086264755</v>
+      </c>
+      <c r="E12">
+        <v>0.8394547584915952</v>
+      </c>
+      <c r="F12">
+        <v>0.8421558108689879</v>
+      </c>
+      <c r="H12">
+        <v>0.8356257577718017</v>
+      </c>
+      <c r="I12">
+        <v>-0.8208593933109908</v>
+      </c>
+      <c r="J12">
+        <v>-0.8113179762511858</v>
+      </c>
+      <c r="K12">
+        <v>-0.8212387842984611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.00350777438703736</v>
+      </c>
+      <c r="C13">
+        <v>0.0007429629568310171</v>
+      </c>
+      <c r="D13">
+        <v>0.173316092231581</v>
+      </c>
+      <c r="E13">
+        <v>0.0001732926462994039</v>
+      </c>
+      <c r="F13">
+        <v>0.0001574877662565218</v>
+      </c>
+      <c r="H13">
+        <v>0.0001978765006491205</v>
+      </c>
+      <c r="I13">
+        <v>0.0003205015733854004</v>
+      </c>
+      <c r="J13">
+        <v>0.0004280417051222953</v>
+      </c>
+      <c r="K13">
+        <v>0.0003167270740156178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.7019366513179207</v>
+      </c>
+      <c r="C14">
+        <v>0.7858782477354773</v>
+      </c>
+      <c r="J14">
+        <v>-0.7889906302828407</v>
+      </c>
+      <c r="K14">
+        <v>-0.7997281006387554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.005135234329474092</v>
+      </c>
+      <c r="C15">
+        <v>0.0008617569335996094</v>
+      </c>
+      <c r="J15">
+        <v>0.0007950367889301646</v>
+      </c>
+      <c r="K15">
+        <v>0.0005958761785660537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.9334215977232715</v>
+      </c>
+      <c r="C16">
+        <v>-0.9525472883321411</v>
+      </c>
+      <c r="D16">
+        <v>0.4274937688359473</v>
+      </c>
+      <c r="E16">
+        <v>-0.8125135344332786</v>
+      </c>
+      <c r="F16">
+        <v>-0.8189349826173683</v>
+      </c>
+      <c r="H16">
+        <v>-0.7993103293307993</v>
+      </c>
+      <c r="J16">
+        <v>0.9982926375947575</v>
+      </c>
+      <c r="K16">
+        <v>0.9999962334833676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1.088202215426326e-06</v>
+      </c>
+      <c r="C17">
+        <v>1.487582807289779e-07</v>
+      </c>
+      <c r="D17">
+        <v>0.1273344161232841</v>
+      </c>
+      <c r="E17">
+        <v>0.0004131643042763172</v>
+      </c>
+      <c r="F17">
+        <v>0.0003402103319657597</v>
+      </c>
+      <c r="H17">
+        <v>0.0006027877888988636</v>
+      </c>
+      <c r="J17">
+        <v>3.563336413903922e-16</v>
+      </c>
+      <c r="K17">
+        <v>4.122188328471633e-32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.9448033427735886</v>
+      </c>
+      <c r="C18">
+        <v>-0.9383542327758884</v>
+      </c>
+      <c r="K18">
+        <v>0.9981285614843376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>3.622738309288002e-07</v>
+      </c>
+      <c r="C19">
+        <v>6.931665664735979e-07</v>
+      </c>
+      <c r="K19">
+        <v>6.177362937157913e-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.9328083850215911</v>
+      </c>
+      <c r="C20">
+        <v>-0.9531341922488054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1.148190247823504e-06</v>
+      </c>
+      <c r="C21">
+        <v>1.382318289398793e-07</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>